--- a/casos de uso/caso 5/worklog.xlsx
+++ b/casos de uso/caso 5/worklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\analise-sprint\casos de uso\caso 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0B0B18-70D5-4A38-83F1-93D05BE8F0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58123F7C-7B1E-432B-AB98-6C3AF4EACBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="28800" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Created date (worklog)</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>DM-0005</t>
-  </si>
-  <si>
-    <t>4h</t>
   </si>
   <si>
     <t>16h</t>
@@ -468,7 +465,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
